--- a/biology/Médecine/Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients/Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients.xlsx
+++ b/biology/Médecine/Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients/Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_mentale,_%C3%A0_la_Pr%C3%A9vention_du_suicide_et_%C3%A0_la_S%C3%A9curit%C3%A9_des_patients</t>
+          <t>Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministre d'État aux Soins et à la Santé mentale (également connu sous le nom de Ministre de la santé mentale) est un poste de niveau intermédiaire au ministère de la Santé et des Affaires sociales du gouvernement britannique. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_mentale,_%C3%A0_la_Pr%C3%A9vention_du_suicide_et_%C3%A0_la_S%C3%A9curit%C3%A9_des_patients</t>
+          <t>Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'occasion de la Journée mondiale de la santé mentale 2018, la Première ministre Theresa May a nommé Jackie Doyle-Price première ministre britannique de la prévention du suicide. Cela s'est produit alors que le gouvernement britannique accueillait le tout premier sommet mondial sur la santé mentale[1].
-En juillet 2020, l'ancienne parlementaire Arrière-ban et infirmière Nadine Dorries a été nommée en tant que ministre de la santé mentale par le premier ministre entrant Boris Johnson[2]. En mars 2020, le département de la Santé a révélé que Dorries avait été testé positif au COVID-19[3]. Elle s'est depuis rétablie. En tant que ministre, Dorries a été chargée de la santé mentale pendant la Pandémie de Covid-19 au Royaume-Uni.
-En octobre 2020, le ministre a abordé les problèmes de santé mentale concernant les risques de suicide des femmes anorexiques[4].
-En janvier 2021, le ministre a fait part au Parlement de la réponse du gouvernement à l'examen indépendant de la sécurité des médicaments et des dispositifs médicaux[5].
-En février 2021, le ministre s'est engagé à augmenter les dépenses gouvernementales en santé mentale à la suite des blocages pendant la pandémie de COVID-19[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion de la Journée mondiale de la santé mentale 2018, la Première ministre Theresa May a nommé Jackie Doyle-Price première ministre britannique de la prévention du suicide. Cela s'est produit alors que le gouvernement britannique accueillait le tout premier sommet mondial sur la santé mentale.
+En juillet 2020, l'ancienne parlementaire Arrière-ban et infirmière Nadine Dorries a été nommée en tant que ministre de la santé mentale par le premier ministre entrant Boris Johnson. En mars 2020, le département de la Santé a révélé que Dorries avait été testé positif au COVID-19. Elle s'est depuis rétablie. En tant que ministre, Dorries a été chargée de la santé mentale pendant la Pandémie de Covid-19 au Royaume-Uni.
+En octobre 2020, le ministre a abordé les problèmes de santé mentale concernant les risques de suicide des femmes anorexiques.
+En janvier 2021, le ministre a fait part au Parlement de la réponse du gouvernement à l'examen indépendant de la sécurité des médicaments et des dispositifs médicaux.
+En février 2021, le ministre s'est engagé à augmenter les dépenses gouvernementales en santé mentale à la suite des blocages pendant la pandémie de COVID-19.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_mentale,_%C3%A0_la_Pr%C3%A9vention_du_suicide_et_%C3%A0_la_S%C3%A9curit%C3%A9_des_patients</t>
+          <t>Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Responsabilités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le ministre est responsable de ce qui suit[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le ministre est responsable de ce qui suit :
 COVID-19 :
 tester et tracer : contenir le framework
 distanciation sociale
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_mentale,_%C3%A0_la_Pr%C3%A9vention_du_suicide_et_%C3%A0_la_S%C3%A9curit%C3%A9_des_patients</t>
+          <t>Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,6 +612,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_mentale,_%C3%A0_la_Pr%C3%A9vention_du_suicide_et_%C3%A0_la_S%C3%A9curit%C3%A9_des_patients</t>
+          <t>Ministre_d'État_à_la_Santé_mentale,_à_la_Prévention_du_suicide_et_à_la_Sécurité_des_patients</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Secrétaire d’État à la Santé mentale du cabinet fantôme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Luciana Berger (ministre fantôme de la Santé mentale)
 Barbara Keeley (ministre fantôme de la Santé mentale et des Affaires sociales)
